--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E8D311-1829-E046-8EB8-85EA4ABEB707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63906F-5025-674A-94C8-DC65182E8A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1060" windowWidth="27500" windowHeight="16940" xr2:uid="{F281D976-5CB1-D44B-9048-CA3B507106CE}"/>
+    <workbookView xWindow="3160" yWindow="500" windowWidth="27500" windowHeight="16940" xr2:uid="{F281D976-5CB1-D44B-9048-CA3B507106CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -120,9 +120,6 @@
     <t>***</t>
   </si>
   <si>
-    <t>Holt-Winters'(+) 2012</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -196,16 +193,18 @@
   </si>
   <si>
     <t>ARIMA(5,1,0)(1,0,1)[12]</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -253,13 +252,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,14 +339,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -372,14 +371,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,6 +447,94 @@
         <a:xfrm>
           <a:off x="11188700" y="0"/>
           <a:ext cx="6286500" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E61671-01BE-C01D-FE74-A70A804FC1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="2247900"/>
+          <a:ext cx="7772400" cy="4118056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>102061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C738E4-8A94-27A7-9C9C-1BB061A79BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8369300" y="0"/>
+          <a:ext cx="7772400" cy="4204161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3A0287-6E83-4B47-9C13-70308DA59DDA}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="A10:J21"/>
+      <selection activeCell="B28" sqref="B28:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,25 +859,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1"/>
@@ -799,15 +886,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -816,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4">
         <v>8666</v>
@@ -841,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <v>33614</v>
@@ -866,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <v>8678</v>
@@ -891,9 +978,9 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14">
         <v>-748</v>
       </c>
       <c r="D6" s="4">
@@ -912,15 +999,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -932,19 +1019,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="5">
-        <v>-10123</v>
+        <v>-7773.82</v>
       </c>
       <c r="D8" s="4">
-        <v>12743</v>
+        <v>11233.39</v>
       </c>
       <c r="E8" s="4">
-        <v>10803</v>
+        <v>8958.26</v>
       </c>
       <c r="F8" s="3">
-        <v>-5.21</v>
+        <v>-4.07</v>
       </c>
       <c r="G8" s="3">
-        <v>5.48</v>
+        <v>4.53</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
@@ -958,20 +1045,20 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5">
-        <v>-1128</v>
-      </c>
-      <c r="D9" s="17">
-        <v>4579</v>
-      </c>
-      <c r="E9" s="17">
-        <v>3425</v>
+      <c r="C9" s="15">
+        <v>4254.29</v>
+      </c>
+      <c r="D9" s="4">
+        <v>37464.300000000003</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32672.41</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.53700000000000003</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1.84</v>
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15.79</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
@@ -986,19 +1073,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="5">
-        <v>-17915</v>
+        <v>6986.23</v>
       </c>
       <c r="D10" s="4">
-        <v>19730</v>
+        <v>40804.58</v>
       </c>
       <c r="E10" s="4">
-        <v>17915</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-8.99</v>
+        <v>35220.89</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.01</v>
       </c>
       <c r="G10" s="3">
-        <v>8.99</v>
+        <v>16.86</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
@@ -1006,38 +1093,38 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5">
         <v>-2921</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="17">
         <v>8273</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="17">
         <v>6368</v>
       </c>
       <c r="F12" s="3">
         <v>-1.76</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="16">
         <v>3.19</v>
       </c>
       <c r="H12" s="1"/>
@@ -1047,10 +1134,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>-6854</v>
@@ -1073,98 +1160,99 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-363</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9642</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8775</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-0.503</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
         <v>12874</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>10163</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-5623</v>
-      </c>
-      <c r="D17" s="4">
-        <v>10237</v>
-      </c>
-      <c r="E17" s="4">
-        <v>7739</v>
-      </c>
-      <c r="F17" s="3">
-        <v>-3.02</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3.87</v>
-      </c>
-      <c r="I17">
-        <v>4716.6239999999998</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-5623</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10237</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7739</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3.02</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3.87</v>
+      </c>
       <c r="I18">
-        <v>141.13910000000001</v>
+        <v>4716.6239999999998</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1174,15 +1262,15 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1191,84 +1279,86 @@
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="7">
+        <v>-12077</v>
+      </c>
+      <c r="D20" s="8">
+        <v>16358</v>
+      </c>
+      <c r="E20" s="8">
+        <v>13711</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-6.39</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="C21" s="7">
+        <v>34059</v>
+      </c>
+      <c r="D21" s="8">
+        <v>43300</v>
+      </c>
+      <c r="E21" s="8">
+        <v>38227</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15.49</v>
+      </c>
+      <c r="G21" s="2">
+        <v>17.39</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10">
-        <v>-363</v>
-      </c>
-      <c r="D22" s="4">
-        <v>9642</v>
-      </c>
-      <c r="E22" s="4">
-        <v>8775</v>
-      </c>
-      <c r="F22" s="10">
-        <v>-0.503</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4.22</v>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">MIN(ABS(I3:I17))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I24" cm="1">
-        <f t="array" ref="I24">MIN(ABS(I3:I16))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="9">
+        <f>C36</f>
+        <v>748</v>
+      </c>
+      <c r="D24" s="9">
+        <f>D36</f>
+        <v>8273</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" ref="E24:G24" si="0">E36</f>
+        <v>6368</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="9">
+        <f>G36</f>
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="9">
-        <f>C37</f>
-        <v>363</v>
-      </c>
-      <c r="D25" s="9">
-        <f>D37</f>
-        <v>4579</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" ref="E25:G25" si="0">E37</f>
-        <v>3425</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.503</v>
-      </c>
-      <c r="G25" s="9">
-        <f t="shared" si="0"/>
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>22</v>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1296,31 +1386,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="9" cm="1">
-        <f t="array" ref="C37">MIN(ABS(C3:C6),ABS(C8:C10),ABS(C12:C13),ABS(C17), ABS(C22))</f>
-        <v>363</v>
-      </c>
-      <c r="D37" s="9" cm="1">
-        <f t="array" ref="D37">MIN(ABS(D3:D6),ABS(D8:D10),ABS(D12:D13),ABS(D17), ABS(D22))</f>
-        <v>4579</v>
-      </c>
-      <c r="E37" s="9" cm="1">
-        <f t="array" ref="E37">MIN(ABS(E3:E6),ABS(E8:E10),ABS(E12:E13),ABS(E17), ABS(E22))</f>
-        <v>3425</v>
-      </c>
-      <c r="F37" s="11" cm="1">
-        <f t="array" ref="F37">MIN(ABS(F3:F6),ABS(F8:F10),ABS(F12:F13),ABS(F17), ABS(F22))</f>
-        <v>0.503</v>
-      </c>
-      <c r="G37" s="9" cm="1">
-        <f t="array" ref="G37">MIN(ABS(G3:G6),ABS(G8:G10),ABS(G12:G13),ABS(G17), ABS(G22))</f>
-        <v>1.84</v>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="9" cm="1">
+        <f t="array" ref="C36">MIN(ABS(C3:C6),ABS(C8:C10),ABS(C12:C13),ABS(C18), ABS(C20:C21))</f>
+        <v>748</v>
+      </c>
+      <c r="D36" s="9" cm="1">
+        <f t="array" ref="D36">MIN(ABS(D3:D6),ABS(D8:D10),ABS(D12:D13),ABS(D18), ABS(D20:D21))</f>
+        <v>8273</v>
+      </c>
+      <c r="E36" s="9" cm="1">
+        <f t="array" ref="E36">MIN(ABS(E3:E6),ABS(E8:E10),ABS(E12:E13),ABS(E18), ABS(E20:E21))</f>
+        <v>6368</v>
+      </c>
+      <c r="F36" s="9" cm="1">
+        <f t="array" ref="F36">MIN(ABS(F3:F6),ABS(F8:F10),ABS(F12:F13),ABS(F18), ABS(F20:F21))</f>
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="9" cm="1">
+        <f t="array" ref="G36">MIN(ABS(G3:G6),ABS(G8:G10),ABS(G12:G13),ABS(G18), ABS(G20:G21))</f>
+        <v>3.19</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +1414,11 @@
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63906F-5025-674A-94C8-DC65182E8A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2CC7E2-F20D-4F4E-ADA1-7A3FDE316A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="500" windowWidth="27500" windowHeight="16940" xr2:uid="{F281D976-5CB1-D44B-9048-CA3B507106CE}"/>
+    <workbookView xWindow="14800" yWindow="1400" windowWidth="27500" windowHeight="16940" activeTab="1" xr2:uid="{F281D976-5CB1-D44B-9048-CA3B507106CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -204,7 +205,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -328,25 +329,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -843,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3A0287-6E83-4B47-9C13-70308DA59DDA}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,524 +858,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>8666</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>39612</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>33124</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>15.6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>33614</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>51223</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>40570</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>13.1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>8678</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>39614</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>33122</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>0.86299999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>15.6</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <v>-748</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>9588</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>8308</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>-0.55500000000000005</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>3.87</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>-7773.82</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>11233.39</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>8958.26</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>-4.07</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>4.53</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>6062.7929999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="3">
         <v>4254.29</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>37464.300000000003</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>32672.41</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>15.79</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>4876.9139999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>6986.23</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>40804.58</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>35220.89</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="8">
         <v>0.01</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>16.86</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>5008.6030000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>-2921</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="9">
         <v>8273</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="9">
         <v>6368</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>-1.76</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="8">
         <v>3.19</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>5839.81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>-6854</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>22224</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>18592</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>-4.63</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>9.24</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>378.89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="8">
         <v>-363</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>9642</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>8775</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>-0.503</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>4.22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2">
         <v>12874</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>10163</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>-5623</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>10237</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>7739</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>-3.02</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>3.87</v>
       </c>
       <c r="I18">
         <v>4716.6239999999998</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>-12077</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="4">
         <v>16358</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <v>13711</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>-6.39</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>7.14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>34059</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="4">
         <v>43300</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="4">
         <v>38227</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>15.49</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>17.39</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I23" cm="1">
         <f t="array" ref="I23">MIN(ABS(I3:I17))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="5">
         <f>C36</f>
         <v>748</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="5">
         <f>D36</f>
         <v>8273</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" ref="E24:G24" si="0">E36</f>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:F24" si="0">E36</f>
         <v>6368</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="5">
         <f>G36</f>
         <v>3.19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1387,38 +1352,377 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="9" cm="1">
+      <c r="C36" s="5" cm="1">
         <f t="array" ref="C36">MIN(ABS(C3:C6),ABS(C8:C10),ABS(C12:C13),ABS(C18), ABS(C20:C21))</f>
         <v>748</v>
       </c>
-      <c r="D36" s="9" cm="1">
+      <c r="D36" s="5" cm="1">
         <f t="array" ref="D36">MIN(ABS(D3:D6),ABS(D8:D10),ABS(D12:D13),ABS(D18), ABS(D20:D21))</f>
         <v>8273</v>
       </c>
-      <c r="E36" s="9" cm="1">
+      <c r="E36" s="5" cm="1">
         <f t="array" ref="E36">MIN(ABS(E3:E6),ABS(E8:E10),ABS(E12:E13),ABS(E18), ABS(E20:E21))</f>
         <v>6368</v>
       </c>
-      <c r="F36" s="9" cm="1">
+      <c r="F36" s="5" cm="1">
         <f t="array" ref="F36">MIN(ABS(F3:F6),ABS(F8:F10),ABS(F12:F13),ABS(F18), ABS(F20:F21))</f>
         <v>0.01</v>
       </c>
-      <c r="G36" s="9" cm="1">
+      <c r="G36" s="5" cm="1">
         <f t="array" ref="G36">MIN(ABS(G3:G6),ABS(G8:G10),ABS(G12:G13),ABS(G18), ABS(G20:G21))</f>
         <v>3.19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B77B5-0DAD-AA48-BA33-E96F176B453E}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13">
+        <v>39612</v>
+      </c>
+      <c r="D3" s="2">
+        <v>33124</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13">
+        <v>51223</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40570</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13">
+        <v>39614</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33122</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13">
+        <v>9588</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8308</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11233.39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8958.26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>37464.300000000003</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32672.41</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40804.58</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35220.89</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8273</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6368</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22224</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18592</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9642</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8775</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14145</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11701</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10237</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7739</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16358</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13711</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43300</v>
+      </c>
+      <c r="D21" s="4">
+        <v>38227</v>
+      </c>
+      <c r="E21" s="1">
+        <v>17.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>